--- a/documentation/Матрица требований.xlsx
+++ b/documentation/Матрица требований.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef0ec8bc5c2f2962/РТУ МИРЭА/5 СЕМЕСТР/СиПИ/ПР/2. Матрица требований/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="14_{25006583-F5AB-448B-AD48-796E670810C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB900E5D-BAD1-47F9-B4BF-FAD2B6367EC8}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="14_{25006583-F5AB-448B-AD48-796E670810C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F3926739-3748-472E-B917-3F937E101F6F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>Должен обеспечивать ввод логина и пароля для авторизации пользователя</t>
   </si>
   <si>
-    <t>Должен обеспечивать ввод регистрационных данных регистрационных данных (логин, пароль, 16-значный номер карты, полное имя, срок действия карты (месяц и год, разделенные точкой), 3-значный CVV-код) для регистрации пользователя</t>
-  </si>
-  <si>
     <t>Должен обеспечивать проверку введенного логина на уникальность среди уже существующих</t>
   </si>
   <si>
@@ -512,9 +509,6 @@
     <t>Должен обеспечивать предоставление текущих данных пользователя</t>
   </si>
   <si>
-    <t>Должен обеспечивать возможность изменения данных пользователя</t>
-  </si>
-  <si>
     <t>Должен обеспечивать возможность пополнения баланса аккаунта пользователя</t>
   </si>
   <si>
@@ -675,6 +669,12 @@
   </si>
   <si>
     <t>Должно обеспечивать появление окна авторизации (при запуске приложения или при выходе из аккаунта) с текстовыми полями для ввода данных и кнопкой для авторизации</t>
+  </si>
+  <si>
+    <t>Должен обеспечивать ввод регистрационных данных (логин, пароль, 16-значный номер карты, полное имя, срок действия карты (месяц и год, разделенные точкой), 3-значный CVV-код) для регистрации пользователя</t>
+  </si>
+  <si>
+    <t>Должен обеспечивать возможность изменения данных пользователя (16-значный номер карты, полное имя, срок действия карты (месяц и год, разделенные точкой), 3-значный CVV-код)</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:AU143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>124</v>
@@ -1432,14 +1432,14 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>20</v>
@@ -1493,14 +1493,14 @@
         <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>24</v>
@@ -1554,17 +1554,17 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1715,14 +1715,14 @@
         <v>126</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>126</v>
@@ -1776,14 +1776,14 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>20</v>
@@ -1837,14 +1837,14 @@
         <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>127</v>
@@ -1898,14 +1898,14 @@
         <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>24</v>
@@ -1959,17 +1959,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -2120,17 +2120,17 @@
         <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2181,17 +2181,17 @@
         <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -2242,17 +2242,17 @@
         <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -2303,14 +2303,14 @@
         <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>20</v>
@@ -2364,14 +2364,14 @@
         <v>127</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>127</v>
@@ -2425,14 +2425,14 @@
         <v>125</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>24</v>
@@ -2586,17 +2586,17 @@
         <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2647,17 +2647,17 @@
         <v>131</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2808,17 +2808,17 @@
         <v>132</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -2869,14 +2869,14 @@
         <v>133</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>133</v>
@@ -2930,17 +2930,17 @@
         <v>134</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -2991,17 +2991,17 @@
         <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -3052,14 +3052,14 @@
         <v>23</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>23</v>
@@ -3113,14 +3113,14 @@
         <v>20</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>20</v>
@@ -3174,14 +3174,14 @@
         <v>125</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>24</v>
@@ -3335,17 +3335,17 @@
         <v>135</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -3396,14 +3396,14 @@
         <v>133</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>133</v>
@@ -3457,17 +3457,17 @@
         <v>66</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -3518,14 +3518,14 @@
         <v>20</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>20</v>
@@ -3579,14 +3579,14 @@
         <v>125</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>24</v>
@@ -3740,17 +3740,17 @@
         <v>136</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -3801,14 +3801,14 @@
         <v>133</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>133</v>
@@ -3862,17 +3862,17 @@
         <v>137</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -3923,17 +3923,17 @@
         <v>66</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -3984,14 +3984,14 @@
         <v>23</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>23</v>
@@ -4045,14 +4045,14 @@
         <v>20</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>20</v>
@@ -4106,14 +4106,14 @@
         <v>125</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>24</v>
@@ -4285,7 +4285,7 @@
         <v>139</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>77</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>9</v>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>65</v>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>24</v>
@@ -4411,14 +4411,14 @@
         <v>143</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>142</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>28</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>31</v>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>71</v>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>34</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>37</v>
@@ -4580,14 +4580,14 @@
         <v>67</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>40</v>
@@ -4619,14 +4619,14 @@
         <v>41</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>13</v>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>11</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>72</v>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>73</v>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>74</v>
@@ -4731,10 +4731,10 @@
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>49</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>85</v>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>51</v>
